--- a/bolsa_valores/varredor_de_fii/botfiimobile/fundos imobiliarios.xlsx
+++ b/bolsa_valores/varredor_de_fii/botfiimobile/fundos imobiliarios.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F514"/>
+  <dimension ref="A1:G514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,11 @@
           <t>Liquidez</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -484,6 +489,11 @@
           <t>64.485</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ABCP11</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -516,6 +526,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=AEFI11</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -548,6 +563,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=AFCR11</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -580,6 +600,11 @@
           <t>897.701</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=AFHI11</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -612,6 +637,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=AFOF11</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -644,6 +674,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=AGCX11</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -676,6 +711,11 @@
           <t>211.249</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=AGRX11</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -708,6 +748,11 @@
           <t>322.101</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=AIEC11</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -740,6 +785,11 @@
           <t>990.205</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=AJFI11</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -772,6 +822,11 @@
           <t>20.794</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ALMI11</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -804,6 +859,11 @@
           <t>518.305</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ALZC11</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -836,6 +896,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ALZM11</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -868,6 +933,11 @@
           <t>1.476.760</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ALZR11</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -900,6 +970,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ALZT11</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -932,6 +1007,11 @@
           <t>230</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ANCR11</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -964,6 +1044,11 @@
           <t>15.682</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=APTO11</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -996,6 +1081,11 @@
           <t>227.552</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=APXM11</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1028,6 +1118,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ARCT11</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1060,6 +1155,11 @@
           <t>3.979</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=AROA11</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1092,6 +1192,11 @@
           <t>306.736</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ARRI11</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1124,6 +1229,11 @@
           <t>133.672</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ARXD11</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1156,6 +1266,11 @@
           <t>21.270</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ASMT11</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1188,6 +1303,11 @@
           <t>259</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ASRF11</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1220,6 +1340,11 @@
           <t>1.944</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ATSA11</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1252,6 +1377,11 @@
           <t>2.250</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=AURB11</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1284,6 +1414,11 @@
           <t>480.023</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=AZPL11</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1316,6 +1451,11 @@
           <t>553.594</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BARI11</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1348,6 +1488,11 @@
           <t>41.014</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BBFI11</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1380,6 +1525,11 @@
           <t>326.658</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BBFO11</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1412,6 +1562,11 @@
           <t>478.280</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BBGO11</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1444,6 +1599,11 @@
           <t>1.199.600</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BBIG11</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1476,6 +1636,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BBPO11</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1508,6 +1673,11 @@
           <t>82.846</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BBRC11</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1540,6 +1710,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BBVJ11</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1572,6 +1747,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BCFF11</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1604,6 +1784,11 @@
           <t>348.195</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BCIA11</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1636,6 +1821,11 @@
           <t>553.672</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BCRI11</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1668,6 +1858,11 @@
           <t>18.588</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BGRB11</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1700,6 +1895,11 @@
           <t>3.278</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BICE11</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1732,6 +1932,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BICR11</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1764,6 +1969,11 @@
           <t>45.288</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BIME11</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1796,6 +2006,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BIPD11</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1828,6 +2043,11 @@
           <t>62.878</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BLCA11</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1860,6 +2080,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BLCP11</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1892,6 +2117,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BLMC11</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1924,6 +2154,11 @@
           <t>373.853</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BLMG11</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1956,6 +2191,11 @@
           <t>601.767</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BLMO11</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1988,6 +2228,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BLMR11</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2020,6 +2265,11 @@
           <t>358</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BLOG11</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2052,6 +2302,11 @@
           <t>1.192</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BLUR11</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2084,6 +2339,11 @@
           <t>373.792</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BMLC11</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2116,6 +2376,11 @@
           <t>136.116</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BNFS11</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2148,6 +2413,11 @@
           <t>319.326</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BPFF11</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2180,6 +2450,11 @@
           <t>1.298.090</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BPML11</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2212,6 +2487,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BPRP11</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2244,6 +2524,11 @@
           <t>2.735.260</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BRCO11</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2276,6 +2561,11 @@
           <t>1.540.860</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BRCR11</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2308,6 +2598,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BREV11</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2340,6 +2635,11 @@
           <t>22.732</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BRIM11</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2372,6 +2672,11 @@
           <t>30.174</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BRIP11</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2404,6 +2709,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BRLA11</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2436,6 +2746,11 @@
           <t>326.333</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BROF11</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2468,6 +2783,11 @@
           <t>529.262</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BTAL11</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2500,6 +2820,11 @@
           <t>1.288.100</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BTCI11</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2532,6 +2857,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BTCR11</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2564,6 +2894,11 @@
           <t>3.783.550</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BTHF11</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2596,6 +2931,11 @@
           <t>18.732</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BTHI11</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2628,6 +2968,11 @@
           <t>7.447.890</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BTLG11</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2660,6 +3005,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BTML11</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2692,6 +3042,11 @@
           <t>345.825</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BTRA11</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2724,6 +3079,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BTSG11</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2756,6 +3116,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BTSI11</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2788,6 +3153,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BTWR11</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2820,6 +3190,11 @@
           <t>551</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BTYU11</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2852,6 +3227,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=BVAR11</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2884,6 +3264,11 @@
           <t>1.084.910</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CACR11</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2916,6 +3301,11 @@
           <t>43.794</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CARE11</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2948,6 +3338,11 @@
           <t>7.462</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CBOP11</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2980,6 +3375,11 @@
           <t>276.461</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CCME11</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3012,6 +3412,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CCRF11</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3044,6 +3449,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CCVA11</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3076,6 +3486,11 @@
           <t>49.868</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CEOC11</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3108,6 +3523,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CFHI11</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3140,6 +3560,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CFII11</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3172,6 +3597,11 @@
           <t>11.637</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CJCT11</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3204,6 +3634,11 @@
           <t>846.202</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CLIN11</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3236,6 +3671,11 @@
           <t>40.986</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CNES11</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3268,6 +3708,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=COPP11</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3300,6 +3745,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CORM11</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3332,6 +3782,11 @@
           <t>2.476.880</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CPFF11</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3364,6 +3819,11 @@
           <t>7.670.360</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CPLG11</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3396,6 +3856,11 @@
           <t>2.895.550</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CPOF11</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3428,6 +3893,11 @@
           <t>3.127.050</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CPSH11</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3460,6 +3930,11 @@
           <t>3.126.020</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CPTR11</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3492,6 +3967,11 @@
           <t>8.656.420</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CPTS11</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3524,6 +4004,11 @@
           <t>8.326.770</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CPUR11</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3556,6 +4041,11 @@
           <t>791.877</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CRAA11</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3588,6 +4078,11 @@
           <t>173.762</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CRFF11</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3620,6 +4115,11 @@
           <t>983</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CTXT11</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3652,6 +4152,11 @@
           <t>1.732.190</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CVBI11</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3684,6 +4189,11 @@
           <t>158.298</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CXAG11</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3716,6 +4226,11 @@
           <t>11.537</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CXCE11</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3748,6 +4263,11 @@
           <t>247.660</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CXCI11</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3780,6 +4300,11 @@
           <t>104.691</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CXCO11</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3812,6 +4337,11 @@
           <t>89.071</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CXRI11</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3844,6 +4374,11 @@
           <t>95.893</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=CXTL11</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3876,6 +4411,11 @@
           <t>66.881</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=DAMA11</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3908,6 +4448,11 @@
           <t>185</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=DAMT11</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3940,6 +4485,11 @@
           <t>74.080</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=DCRA11</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3972,6 +4522,11 @@
           <t>570.391</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=DEVA11</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4004,6 +4559,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=DMAC11</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4036,6 +4596,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=DOMC11</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4068,6 +4633,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=DOVL11</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4100,6 +4670,11 @@
           <t>623</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=DPRO11</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4132,6 +4707,11 @@
           <t>11.465</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=DRIT11</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4164,6 +4744,11 @@
           <t>60.698</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=DVFF11</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4196,6 +4781,11 @@
           <t>21.963</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=EDFO11</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4228,6 +4818,11 @@
           <t>10.892</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=EDGA11</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4260,6 +4855,11 @@
           <t>806.390</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=EGAF11</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4292,6 +4892,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ELDO11B</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4324,6 +4929,11 @@
           <t>79.867</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=EQIN11</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4356,6 +4966,11 @@
           <t>148.459</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=EQIR11</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4388,6 +5003,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ERCR11</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4420,6 +5040,11 @@
           <t>2.421</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ERPA11</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4452,6 +5077,11 @@
           <t>24.526</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=EURO11</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4484,6 +5114,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=EVBI11</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4516,6 +5151,11 @@
           <t>129.788</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=EXES11</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4548,6 +5188,11 @@
           <t>55.058</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FAED11</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4580,6 +5225,11 @@
           <t>49.937</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FAMB11</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4612,6 +5262,11 @@
           <t>714.603</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FATN11</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4644,6 +5299,11 @@
           <t>282.707</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FCFL11</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4676,6 +5336,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FEXC11</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4708,6 +5373,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FFCI11</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4740,6 +5410,11 @@
           <t>1.059.010</t>
         </is>
       </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FGAA11</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4772,6 +5447,11 @@
           <t>174.083</t>
         </is>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FIGS11</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4804,6 +5484,11 @@
           <t>181.024</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FIIB11</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4836,6 +5521,11 @@
           <t>698.797</t>
         </is>
       </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FIIP11</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4868,6 +5558,11 @@
           <t>1.671</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FISC11</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4900,6 +5595,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FISD11</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4932,6 +5632,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FIXX11</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4964,6 +5669,11 @@
           <t>35.239</t>
         </is>
       </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FLCR11</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4996,6 +5706,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FLFL11</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5028,6 +5743,11 @@
           <t>91.766</t>
         </is>
       </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FLMA11</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5060,6 +5780,11 @@
           <t>17.919</t>
         </is>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FLRP11</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5092,6 +5817,11 @@
           <t>2.569</t>
         </is>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FMOF11</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5124,6 +5854,11 @@
           <t>150.214</t>
         </is>
       </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FPAB11</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5156,6 +5891,11 @@
           <t>377</t>
         </is>
       </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FPNG11</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5188,6 +5928,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FRBR11</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5220,6 +5965,11 @@
           <t>70.417</t>
         </is>
       </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FTCA11</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5252,6 +6002,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FTCE11</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5284,6 +6039,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FVBI11</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5316,6 +6076,11 @@
           <t>98.482</t>
         </is>
       </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FVPQ11</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5348,6 +6113,11 @@
           <t>3.200</t>
         </is>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FZDA11</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5380,6 +6150,11 @@
           <t>5.921</t>
         </is>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=FZDB11</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5412,6 +6187,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GALG11</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5444,6 +6224,11 @@
           <t>369.069</t>
         </is>
       </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GAME11</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5476,6 +6261,11 @@
           <t>5.541.020</t>
         </is>
       </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GARE11</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5508,6 +6298,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GCFF11</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5540,6 +6335,11 @@
           <t>5.414</t>
         </is>
       </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GCOI11</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5572,6 +6372,11 @@
           <t>144.776</t>
         </is>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GCRA11</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5604,6 +6409,11 @@
           <t>151.268</t>
         </is>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GCRI11</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5636,6 +6446,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GESE11B</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5668,6 +6483,11 @@
           <t>2.819.850</t>
         </is>
       </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GGRC11</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5700,6 +6520,11 @@
           <t>129.716</t>
         </is>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GLOG11</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5732,6 +6557,11 @@
           <t>392.400</t>
         </is>
       </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GLPF11</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5764,6 +6594,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GRLV11</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5796,6 +6631,11 @@
           <t>365.554</t>
         </is>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GRUL11</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5828,6 +6668,11 @@
           <t>7.191</t>
         </is>
       </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GRWA11</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5860,6 +6705,11 @@
           <t>832.766</t>
         </is>
       </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GSFI11</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5892,6 +6742,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GTLG11</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5924,6 +6779,11 @@
           <t>853.511</t>
         </is>
       </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GTWR11</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5956,6 +6816,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GURB11</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5988,6 +6853,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GWIR11</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6020,6 +6890,11 @@
           <t>834.574</t>
         </is>
       </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=GZIT11</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6052,6 +6927,11 @@
           <t>222</t>
         </is>
       </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HAAA11</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6084,6 +6964,11 @@
           <t>849.470</t>
         </is>
       </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HABT11</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6116,6 +7001,11 @@
           <t>556.583</t>
         </is>
       </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HBCR11</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6148,6 +7038,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HBRH11</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6180,6 +7075,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HBTT11</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6212,6 +7112,11 @@
           <t>43.229</t>
         </is>
       </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HCHG11</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6244,6 +7149,11 @@
           <t>40.573</t>
         </is>
       </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HCRI11</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6276,6 +7186,11 @@
           <t>1.444.610</t>
         </is>
       </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HCTR11</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6308,6 +7223,11 @@
           <t>87</t>
         </is>
       </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HDEL11</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6340,6 +7260,11 @@
           <t>2.542.770</t>
         </is>
       </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HFOF11</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6372,6 +7297,11 @@
           <t>1.430</t>
         </is>
       </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HGAG11</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6404,6 +7334,11 @@
           <t>817.726</t>
         </is>
       </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HGBL11</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6436,6 +7371,11 @@
           <t>2.741.150</t>
         </is>
       </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HGBS11</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6468,6 +7408,11 @@
           <t>2.635.200</t>
         </is>
       </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HGCR11</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6500,6 +7445,11 @@
           <t>294.075</t>
         </is>
       </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HGFF11</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6532,6 +7482,11 @@
           <t>26.039</t>
         </is>
       </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HGIC11</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6564,6 +7519,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HGJH11</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6596,6 +7556,11 @@
           <t>6.492.760</t>
         </is>
       </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HGLG11</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6628,6 +7593,11 @@
           <t>293.100</t>
         </is>
       </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HGPO11</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6660,6 +7630,11 @@
           <t>1.413.310</t>
         </is>
       </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HGRE11</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6692,6 +7667,11 @@
           <t>4.863.300</t>
         </is>
       </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HGRU11</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6724,6 +7704,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HILG11</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6756,6 +7741,11 @@
           <t>93.697</t>
         </is>
       </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HLOG11</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6788,6 +7778,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HMOC11</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6820,6 +7815,11 @@
           <t>358.183</t>
         </is>
       </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HOFC11</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6852,6 +7852,11 @@
           <t>18.133</t>
         </is>
       </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HOSI11</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6884,6 +7889,11 @@
           <t>1.202.060</t>
         </is>
       </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HPDP11</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6916,6 +7926,11 @@
           <t>87</t>
         </is>
       </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HRDF11</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6948,6 +7963,11 @@
           <t>562.108</t>
         </is>
       </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HREC11</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6980,6 +8000,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HRES11</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -7012,6 +8037,11 @@
           <t>338.065</t>
         </is>
       </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HSAF11</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -7044,6 +8074,11 @@
           <t>549.110</t>
         </is>
       </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HSLG11</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -7076,6 +8111,11 @@
           <t>2.865.900</t>
         </is>
       </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HSML11</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -7108,6 +8148,11 @@
           <t>3.253.360</t>
         </is>
       </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HSRE11</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -7140,6 +8185,11 @@
           <t>1.307.800</t>
         </is>
       </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HTMX11</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -7172,6 +8222,11 @@
           <t>742</t>
         </is>
       </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HUCG11</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -7204,6 +8259,11 @@
           <t>3.821</t>
         </is>
       </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HUSC11</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -7236,6 +8296,11 @@
           <t>485</t>
         </is>
       </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=HUSI11</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -7268,6 +8333,11 @@
           <t>104.899</t>
         </is>
       </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=IAAG11</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -7300,6 +8370,11 @@
           <t>25.611</t>
         </is>
       </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=IAGR11</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -7332,6 +8407,11 @@
           <t>334</t>
         </is>
       </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=IBBP11</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -7364,6 +8444,11 @@
           <t>204.632</t>
         </is>
       </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=IBCR11</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -7396,6 +8481,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=IBFF11</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -7428,6 +8518,11 @@
           <t>1.311.720</t>
         </is>
       </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ICRI11</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -7460,6 +8555,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=IDFI11</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7492,6 +8592,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=IDGR11</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -7524,6 +8629,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=IFID11</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7556,6 +8666,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=IFIE11</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -7588,6 +8703,11 @@
           <t>190.253</t>
         </is>
       </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=INLG11</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -7620,6 +8740,11 @@
           <t>61.033</t>
         </is>
       </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=INRD11</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -7652,6 +8777,11 @@
           <t>2.877.610</t>
         </is>
       </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=IRDM11</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7684,6 +8814,11 @@
           <t>40.467</t>
         </is>
       </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=IRIM11</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7716,6 +8851,11 @@
           <t>20</t>
         </is>
       </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ISCJ11</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7748,6 +8888,11 @@
           <t>462.930</t>
         </is>
       </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ITIP11</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -7780,6 +8925,11 @@
           <t>365.354</t>
         </is>
       </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ITIT11</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7812,6 +8962,11 @@
           <t>1.561.320</t>
         </is>
       </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ITRI11</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -7844,6 +8999,11 @@
           <t>5.478</t>
         </is>
       </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=JASC11</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -7876,6 +9036,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=JBFO11</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -7908,6 +9073,11 @@
           <t>1.333.360</t>
         </is>
       </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=JCCJ11</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -7940,6 +9110,11 @@
           <t>2.551.390</t>
         </is>
       </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=JCIN11</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -7972,6 +9147,11 @@
           <t>107.378</t>
         </is>
       </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=JFLL11</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -8004,6 +9184,11 @@
           <t>257.913</t>
         </is>
       </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=JGPX11</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -8036,6 +9221,11 @@
           <t>88.712</t>
         </is>
       </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=JPPA11</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -8068,6 +9258,11 @@
           <t>6.497</t>
         </is>
       </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=JPPC11</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -8100,6 +9295,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=JRDM11</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -8132,6 +9332,11 @@
           <t>1.978.570</t>
         </is>
       </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=JSAF11</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -8164,6 +9369,11 @@
           <t>680.281</t>
         </is>
       </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=JSCR11</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -8196,6 +9406,11 @@
           <t>1.378.590</t>
         </is>
       </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=JSRE11</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -8228,6 +9443,11 @@
           <t>476.793</t>
         </is>
       </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KCRE11</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -8260,6 +9480,11 @@
           <t>390.979</t>
         </is>
       </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KDOL11</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -8292,6 +9517,11 @@
           <t>36.651</t>
         </is>
       </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KEVE11</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -8324,6 +9554,11 @@
           <t>1.821</t>
         </is>
       </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KFEN11</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -8356,6 +9591,11 @@
           <t>1.456.450</t>
         </is>
       </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KFOF11</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -8388,6 +9628,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KINP11</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -8420,6 +9665,11 @@
           <t>473.802</t>
         </is>
       </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KISU11</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -8452,6 +9702,11 @@
           <t>557.531</t>
         </is>
       </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KIVO11</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -8484,6 +9739,11 @@
           <t>3.801.940</t>
         </is>
       </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KNCA11</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -8516,6 +9776,11 @@
           <t>11.491.700</t>
         </is>
       </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KNCR11</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -8548,6 +9813,11 @@
           <t>5.362.900</t>
         </is>
       </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KNHF11</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -8580,6 +9850,11 @@
           <t>4.303.810</t>
         </is>
       </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KNHY11</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -8612,6 +9887,11 @@
           <t>7.486.450</t>
         </is>
       </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KNIP11</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -8644,6 +9924,11 @@
           <t>2.932</t>
         </is>
       </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KNRE11</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -8676,6 +9961,11 @@
           <t>7.706.520</t>
         </is>
       </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KNRI11</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -8708,6 +9998,11 @@
           <t>5.268.470</t>
         </is>
       </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KNSC11</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -8740,6 +10035,11 @@
           <t>4.213.380</t>
         </is>
       </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KNUQ11</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -8772,6 +10072,11 @@
           <t>483.988</t>
         </is>
       </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KOPA11</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -8804,6 +10109,11 @@
           <t>2.375.270</t>
         </is>
       </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=KORE11</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -8836,6 +10146,11 @@
           <t>41.166</t>
         </is>
       </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=LAFI11</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -8868,6 +10183,11 @@
           <t>776.957</t>
         </is>
       </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=LASC11</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -8900,6 +10220,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=LATR11B</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -8932,6 +10257,11 @@
           <t>30.783</t>
         </is>
       </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=LFTT11</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -8964,6 +10294,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=LGCP11</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -8996,6 +10331,11 @@
           <t>696.155</t>
         </is>
       </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=LIFE11</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -9028,6 +10368,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=LLAO11</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -9060,6 +10405,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=LOFT11B</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -9092,6 +10442,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=LPLP11</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -9124,6 +10479,11 @@
           <t>89.717</t>
         </is>
       </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=LSAG11</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -9156,6 +10516,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=LSPA11</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -9188,6 +10553,11 @@
           <t>3.925</t>
         </is>
       </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=LTMT11</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -9220,6 +10590,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=LUGG11</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -9252,6 +10627,11 @@
           <t>3.001.960</t>
         </is>
       </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=LVBI11</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -9284,6 +10664,11 @@
           <t>2.853.780</t>
         </is>
       </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MALL11</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -9316,6 +10701,11 @@
           <t>1.076.100</t>
         </is>
       </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MANA11</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -9348,6 +10738,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MATV11</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -9380,6 +10775,11 @@
           <t>561.006</t>
         </is>
       </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MAXR11</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -9412,6 +10812,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MBRF11</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -9444,6 +10849,11 @@
           <t>2.505.370</t>
         </is>
       </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MCCI11</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -9476,6 +10886,11 @@
           <t>3.297</t>
         </is>
       </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MCEM11</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -9508,6 +10923,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MCHF11</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -9540,6 +10960,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MCHY11</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -9572,6 +10997,11 @@
           <t>1.889.890</t>
         </is>
       </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MCLO11</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -9604,6 +11034,11 @@
           <t>3.222.520</t>
         </is>
       </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MCRE11</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -9636,6 +11071,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MFAI11</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -9668,6 +11108,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MFCR11</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -9700,6 +11145,11 @@
           <t>933.454</t>
         </is>
       </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MFII11</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -9732,6 +11182,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MGCR11</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -9764,6 +11219,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MGFF11</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -9796,6 +11256,11 @@
           <t>24.607</t>
         </is>
       </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MGHT11</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -9828,6 +11293,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MGIM11</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -9860,6 +11330,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MGLG11</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -9892,6 +11367,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MINT11</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -9924,6 +11404,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MMPD11</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -9956,6 +11441,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MORC11</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -9988,6 +11478,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MORE11</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -10020,6 +11515,11 @@
           <t>12.002.300</t>
         </is>
       </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=MXRF11</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -10052,6 +11552,11 @@
           <t>3.657</t>
         </is>
       </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=NAUI11</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -10084,6 +11589,11 @@
           <t>84.384</t>
         </is>
       </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=NAVT11</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -10116,6 +11626,11 @@
           <t>7.361</t>
         </is>
       </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=NCHB11</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -10148,6 +11663,11 @@
           <t>63.185</t>
         </is>
       </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=NCRA11</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -10180,6 +11700,11 @@
           <t>1.508</t>
         </is>
       </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=NCRI11</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -10212,6 +11737,11 @@
           <t>1.045.790</t>
         </is>
       </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=NEWL11</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -10244,6 +11774,11 @@
           <t>98.078</t>
         </is>
       </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=NEWU11</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -10276,6 +11811,11 @@
           <t>243.657</t>
         </is>
       </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=NEXG11</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -10308,6 +11848,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=NPAR11</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -10340,6 +11885,11 @@
           <t>155.798</t>
         </is>
       </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=NSLU11</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -10372,6 +11922,11 @@
           <t>2.905</t>
         </is>
       </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=NVHO11</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -10404,6 +11959,11 @@
           <t>26</t>
         </is>
       </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=OBAL11</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -10436,6 +11996,11 @@
           <t>18.815</t>
         </is>
       </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=OCRE11</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -10468,6 +12033,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=OGHY11</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -10500,6 +12070,11 @@
           <t>95.518</t>
         </is>
       </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=OIAG11</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -10532,6 +12107,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ONEF11</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -10564,6 +12144,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ORPD11</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -10596,6 +12181,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=OUCY11</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -10628,6 +12218,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=OUFF11</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -10660,6 +12255,11 @@
           <t>410.243</t>
         </is>
       </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=OUJP11</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -10692,6 +12292,11 @@
           <t>720.875</t>
         </is>
       </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=OULG11</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -10724,6 +12329,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=OURE11</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -10756,6 +12366,11 @@
           <t>17.305</t>
         </is>
       </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PATA11</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -10788,6 +12403,11 @@
           <t>830.339</t>
         </is>
       </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PATC11</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -10820,6 +12440,11 @@
           <t>322.873</t>
         </is>
       </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PATL11</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -10852,6 +12477,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PDDA11B</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -10884,6 +12514,11 @@
           <t>423</t>
         </is>
       </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PEMA11</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -10916,6 +12551,11 @@
           <t>864.178</t>
         </is>
       </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PLAG11</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -10948,6 +12588,11 @@
           <t>84.130</t>
         </is>
       </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PLCA11</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -10980,6 +12625,11 @@
           <t>178.373</t>
         </is>
       </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PLCR11</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -11012,6 +12662,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PLOG11</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -11044,6 +12699,11 @@
           <t>9.294</t>
         </is>
       </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PLRI11</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -11076,6 +12736,11 @@
           <t>3.749</t>
         </is>
       </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PMFO11</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -11108,6 +12773,11 @@
           <t>352.855</t>
         </is>
       </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PMIS11</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -11140,6 +12810,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PNCR11</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -11172,6 +12847,11 @@
           <t>75.476</t>
         </is>
       </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PNDL11</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -11204,6 +12884,11 @@
           <t>32.096</t>
         </is>
       </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PNPR11</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -11236,6 +12921,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PNRC11</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -11268,6 +12958,11 @@
           <t>474.843</t>
         </is>
       </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PORD11</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -11300,6 +12995,11 @@
           <t>229.365</t>
         </is>
       </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PQAG11</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -11332,6 +13032,11 @@
           <t>378.902</t>
         </is>
       </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PQDP11</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -11364,6 +13069,11 @@
           <t>549</t>
         </is>
       </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PRSN11</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -11396,6 +13106,11 @@
           <t>1.037</t>
         </is>
       </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PRSV11</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -11428,6 +13143,11 @@
           <t>31.697</t>
         </is>
       </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PULV11</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -11460,6 +13180,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PURB11</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -11492,6 +13217,11 @@
           <t>3.898.320</t>
         </is>
       </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=PVBI11</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -11524,6 +13254,11 @@
           <t>149.034</t>
         </is>
       </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=QAGR11</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -11556,6 +13291,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=QAMI11</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -11588,6 +13328,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=QIFF11</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -11620,6 +13365,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=QIRI11</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -11652,6 +13402,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=QMFF11</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -11684,6 +13439,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBBV11</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -11716,6 +13476,11 @@
           <t>144.616</t>
         </is>
       </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBCO11</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -11748,6 +13513,11 @@
           <t>529</t>
         </is>
       </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBDS11</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -11780,6 +13550,11 @@
           <t>71.471</t>
         </is>
       </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBED11</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -11812,6 +13587,11 @@
           <t>504.314</t>
         </is>
       </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBFF11</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -11844,6 +13624,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBGS11</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -11876,6 +13661,11 @@
           <t>317.410</t>
         </is>
       </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBHG11</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -11908,6 +13698,11 @@
           <t>289.907</t>
         </is>
       </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBHY11</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -11940,6 +13735,11 @@
           <t>146.056</t>
         </is>
       </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBIR11</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -11972,6 +13772,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBIV11</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -12004,6 +13809,11 @@
           <t>2.717</t>
         </is>
       </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBLG11</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -12036,6 +13846,11 @@
           <t>21.685</t>
         </is>
       </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBOP11</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -12068,6 +13883,11 @@
           <t>64.570</t>
         </is>
       </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBRD11</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -12100,6 +13920,11 @@
           <t>2.947.360</t>
         </is>
       </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBRF11</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -12132,6 +13957,11 @@
           <t>2.233</t>
         </is>
       </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBRI11</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -12164,6 +13994,11 @@
           <t>285.767</t>
         </is>
       </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBRL11</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -12196,6 +14031,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBRM11</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -12228,6 +14068,11 @@
           <t>1.650.740</t>
         </is>
       </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBRP11</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -12260,6 +14105,11 @@
           <t>2.077.950</t>
         </is>
       </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBRR11</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -12292,6 +14142,11 @@
           <t>49.395</t>
         </is>
       </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBRS11</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -12324,6 +14179,11 @@
           <t>625.811</t>
         </is>
       </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBRX11</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -12356,6 +14216,11 @@
           <t>2.847.570</t>
         </is>
       </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBRY11</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -12388,6 +14253,11 @@
           <t>1.210</t>
         </is>
       </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBTS11</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -12420,6 +14290,11 @@
           <t>1.871.760</t>
         </is>
       </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBVA11</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -12452,6 +14327,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RBVO11</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -12484,6 +14364,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RCFF11</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -12516,6 +14401,11 @@
           <t>883.972</t>
         </is>
       </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RCRB11</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -12548,6 +14438,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RCRI11B</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -12580,6 +14475,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RDES11</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -12612,6 +14512,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RDPD11</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -12644,6 +14549,11 @@
           <t>21.759</t>
         </is>
       </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RECD11</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -12676,6 +14586,11 @@
           <t>11.821</t>
         </is>
       </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RECM11</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -12708,6 +14623,11 @@
           <t>2.250.850</t>
         </is>
       </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RECR11</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -12740,6 +14660,11 @@
           <t>289.025</t>
         </is>
       </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RECT11</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -12772,6 +14697,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RECX11</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -12804,6 +14734,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=REIT11</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -12836,6 +14771,11 @@
           <t>791.081</t>
         </is>
       </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RELG11</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -12868,6 +14808,11 @@
           <t>12.045</t>
         </is>
       </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RENV11</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -12900,6 +14845,11 @@
           <t>474.050</t>
         </is>
       </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RFOF11</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -12932,6 +14882,11 @@
           <t>309.569</t>
         </is>
       </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RINV11</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -12964,6 +14919,11 @@
           <t>38.765</t>
         </is>
       </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RMAI11</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -12996,6 +14956,11 @@
           <t>10.502</t>
         </is>
       </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RNDP11</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -13028,6 +14993,11 @@
           <t>48.847</t>
         </is>
       </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RNGO11</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -13060,6 +15030,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ROOF11</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -13092,6 +15067,11 @@
           <t>545.476</t>
         </is>
       </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RPRI11</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -13124,6 +15104,11 @@
           <t>80.997</t>
         </is>
       </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RRCI11</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -13156,6 +15141,11 @@
           <t>331</t>
         </is>
       </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RSPD11</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -13188,6 +15178,11 @@
           <t>2.685.830</t>
         </is>
       </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RURA11</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -13220,6 +15215,11 @@
           <t>1.033.030</t>
         </is>
       </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RVBI11</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -13252,6 +15252,11 @@
           <t>1.221.800</t>
         </is>
       </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RZAG11</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -13284,6 +15289,11 @@
           <t>1.631.410</t>
         </is>
       </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RZAK11</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -13316,6 +15326,11 @@
           <t>596.668</t>
         </is>
       </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RZAT11</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -13348,6 +15363,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RZDM11</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -13380,6 +15400,11 @@
           <t>18</t>
         </is>
       </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RZEO11</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -13412,6 +15437,11 @@
           <t>1.015.230</t>
         </is>
       </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RZLC11</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -13444,6 +15474,11 @@
           <t>3.874.830</t>
         </is>
       </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RZTR11</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -13476,6 +15511,11 @@
           <t>26.533</t>
         </is>
       </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=RZZR11</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -13508,6 +15548,11 @@
           <t>272.282</t>
         </is>
       </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SADI11</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -13540,6 +15585,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SAIC11</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -13572,6 +15622,11 @@
           <t>276.032</t>
         </is>
       </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SAPI11</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -13604,6 +15659,11 @@
           <t>1.468.700</t>
         </is>
       </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SARE11</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -13636,6 +15696,11 @@
           <t>1.509</t>
         </is>
       </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SCPF11</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -13668,6 +15733,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SDIL11</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -13700,6 +15770,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SDIP11</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -13732,6 +15807,11 @@
           <t>111</t>
         </is>
       </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SEED11</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -13764,6 +15844,11 @@
           <t>81.455</t>
         </is>
       </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SEQR11</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -13796,6 +15881,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SHDP11B</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -13828,6 +15918,11 @@
           <t>337.407</t>
         </is>
       </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SHOP11</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -13860,6 +15955,11 @@
           <t>650.198</t>
         </is>
       </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SHPH11</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -13892,6 +15992,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SIGR11</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -13924,6 +16029,11 @@
           <t>266.295</t>
         </is>
       </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SJAU11</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -13956,6 +16066,11 @@
           <t>286.782</t>
         </is>
       </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SMRE11</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -13988,6 +16103,11 @@
           <t>1.574.450</t>
         </is>
       </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SNAG11</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -14020,6 +16140,11 @@
           <t>373.424</t>
         </is>
       </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SNCI11</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -14052,6 +16177,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SNCR11</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -14084,6 +16214,11 @@
           <t>490.352</t>
         </is>
       </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SNEL11</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -14116,6 +16251,11 @@
           <t>717.415</t>
         </is>
       </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SNFF11</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -14148,6 +16288,11 @@
           <t>100.669</t>
         </is>
       </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SNFZ11</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -14180,6 +16325,11 @@
           <t>314.558</t>
         </is>
       </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SNLG11</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -14212,6 +16362,11 @@
           <t>46.286</t>
         </is>
       </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SNME11</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -14244,6 +16399,11 @@
           <t>248</t>
         </is>
       </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SOFF11</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -14276,6 +16436,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SOLR11</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -14308,6 +16473,11 @@
           <t>2.364</t>
         </is>
       </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SPDE11</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -14340,6 +16510,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SPMO11</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -14372,6 +16547,11 @@
           <t>53.969</t>
         </is>
       </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SPTW11</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -14404,6 +16584,11 @@
           <t>642.201</t>
         </is>
       </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SPXS11</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -14436,6 +16621,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=SRVD11</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -14468,6 +16658,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=STRX11</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -14500,6 +16695,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=TBOF11</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -14532,6 +16732,11 @@
           <t>76.696</t>
         </is>
       </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=TELM11</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -14564,6 +16769,11 @@
           <t>495.813</t>
         </is>
       </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=TEPP11</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -14596,6 +16806,11 @@
           <t>5.652.910</t>
         </is>
       </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=TGAR11</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -14628,6 +16843,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=THRA11</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -14660,6 +16880,11 @@
           <t>2.813</t>
         </is>
       </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=TJKB11</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -14692,6 +16917,11 @@
           <t>284.749</t>
         </is>
       </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=TMPS11</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -14724,6 +16954,11 @@
           <t>681.006</t>
         </is>
       </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=TOPP11</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -14756,6 +16991,11 @@
           <t>37.219</t>
         </is>
       </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=TORD11</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -14788,6 +17028,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=TOUR11</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -14820,6 +17065,11 @@
           <t>542.179</t>
         </is>
       </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=TRBL11</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -14852,6 +17102,11 @@
           <t>11.023</t>
         </is>
       </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=TRNT11</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -14884,6 +17139,11 @@
           <t>50.246</t>
         </is>
       </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=TRXB11</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -14916,6 +17176,11 @@
           <t>5.481.570</t>
         </is>
       </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=TRXF11</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -14948,6 +17213,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=TRXL11</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -14980,6 +17250,11 @@
           <t>127.825</t>
         </is>
       </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=TRXY11</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -15012,6 +17287,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=TSER11</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -15044,6 +17324,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=TSNC11</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -15076,6 +17361,11 @@
           <t>926.542</t>
         </is>
       </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=TVRI11</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -15108,6 +17398,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=UBSR11</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -15140,6 +17435,11 @@
           <t>1.760</t>
         </is>
       </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=URHF11</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -15172,6 +17472,11 @@
           <t>1.178.970</t>
         </is>
       </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=URPR11</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -15204,6 +17509,11 @@
           <t>1.953.940</t>
         </is>
       </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VCJR11</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -15236,6 +17546,11 @@
           <t>700.442</t>
         </is>
       </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VCRA11</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -15268,6 +17583,11 @@
           <t>154.153</t>
         </is>
       </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VCRI11</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -15300,6 +17620,11 @@
           <t>231.198</t>
         </is>
       </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VCRR11</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -15332,6 +17657,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VERE11</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -15364,6 +17694,11 @@
           <t>3.058.680</t>
         </is>
       </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VGHF11</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -15396,6 +17731,11 @@
           <t>1.460.780</t>
         </is>
       </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VGIA11</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -15428,6 +17768,11 @@
           <t>269.009</t>
         </is>
       </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VGII11</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -15460,6 +17805,11 @@
           <t>1.448.620</t>
         </is>
       </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VGIP11</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -15492,6 +17842,11 @@
           <t>4.279.850</t>
         </is>
       </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VGIR11</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -15524,6 +17879,11 @@
           <t>601.015</t>
         </is>
       </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VGRI11</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -15556,6 +17916,11 @@
           <t>990.446</t>
         </is>
       </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VHFA11</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -15588,6 +17953,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VIFI11</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -15620,6 +17990,11 @@
           <t>1.564.400</t>
         </is>
       </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VILG11</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -15652,6 +18027,11 @@
           <t>499.379</t>
         </is>
       </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VINO11</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -15684,6 +18064,11 @@
           <t>3.745.350</t>
         </is>
       </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VISC11</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -15716,6 +18101,11 @@
           <t>347.293</t>
         </is>
       </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VIUR11</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -15748,6 +18138,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VJFD11</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -15780,6 +18175,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VLOL11</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -15812,6 +18212,11 @@
           <t>4.231</t>
         </is>
       </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VOTS11</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -15844,6 +18249,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VPSI11</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -15876,6 +18286,11 @@
           <t>1.533.970</t>
         </is>
       </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VRTA11</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -15908,6 +18323,11 @@
           <t>316.411</t>
         </is>
       </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VRTM11</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -15940,6 +18360,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VSEC11</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -15972,6 +18397,11 @@
           <t>126.437</t>
         </is>
       </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VSHO11</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -16004,6 +18434,11 @@
           <t>126.708</t>
         </is>
       </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VSLH11</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -16036,6 +18471,11 @@
           <t>76.803</t>
         </is>
       </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VTLT11</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -16068,6 +18508,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VTPL11</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -16100,6 +18545,11 @@
           <t>599.671</t>
         </is>
       </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VVCR11</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -16132,6 +18582,11 @@
           <t>548.577</t>
         </is>
       </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VVMR11</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -16164,6 +18619,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VVPR11</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -16196,6 +18656,11 @@
           <t>63.852</t>
         </is>
       </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VVRI11</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -16228,6 +18693,11 @@
           <t>661.888</t>
         </is>
       </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=VXXV11</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -16260,6 +18730,11 @@
           <t>282.044</t>
         </is>
       </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=WHGR11</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -16292,6 +18767,11 @@
           <t>4.503</t>
         </is>
       </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=WPLZ11</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -16324,6 +18804,11 @@
           <t>13.645</t>
         </is>
       </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=WSEC11</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -16356,6 +18841,11 @@
           <t>3.351</t>
         </is>
       </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=WTSP11</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -16388,6 +18878,11 @@
           <t>927.279</t>
         </is>
       </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=XPCA11</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -16420,6 +18915,11 @@
           <t>1.431.890</t>
         </is>
       </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=XPCI11</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -16452,6 +18952,11 @@
           <t>13.427</t>
         </is>
       </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=XPCM11</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -16484,6 +18989,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=XPHT11</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -16516,6 +19026,11 @@
           <t>357.174</t>
         </is>
       </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=XPIN11</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -16548,6 +19063,11 @@
           <t>4.019.770</t>
         </is>
       </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=XPLG11</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -16580,6 +19100,11 @@
           <t>13.223.900</t>
         </is>
       </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=XPML11</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -16612,6 +19137,11 @@
           <t>11.517</t>
         </is>
       </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=XPPR11</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -16644,6 +19174,11 @@
           <t>630.454</t>
         </is>
       </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=XPSF11</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -16676,6 +19211,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=XTED11</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -16708,6 +19248,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=YCHY11</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -16740,6 +19285,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=YUFI11</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -16772,6 +19322,11 @@
           <t>2.869</t>
         </is>
       </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ZAGH11</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -16804,6 +19359,11 @@
           <t>9.610</t>
         </is>
       </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ZAVC11</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -16836,6 +19396,11 @@
           <t>384.853</t>
         </is>
       </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ZAVI11</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -16866,6 +19431,11 @@
       <c r="F514" t="inlineStr">
         <is>
           <t>2.029</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>https://www.fundamentus.com.br/detalhes.php?papel=ZIFI11</t>
         </is>
       </c>
     </row>
